--- a/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1798</v>
+        <v>1704</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10847</v>
+        <v>10081</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01243440951365504</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004818069567947596</v>
+        <v>0.004567088465936061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0290659405428646</v>
+        <v>0.0270144068430598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13279</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7369</v>
+        <v>7109</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22016</v>
+        <v>22556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02259346654263844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01253749344199654</v>
+        <v>0.01209470123146699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03745812911687291</v>
+        <v>0.03837704551228729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>17920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11428</v>
+        <v>10396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27730</v>
+        <v>26880</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0186481064875125</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01189252884196449</v>
+        <v>0.01081810086779511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0288577318972402</v>
+        <v>0.02797264205743132</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7459</v>
+        <v>8144</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22028</v>
+        <v>21717</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03697663683329357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01998608630499353</v>
+        <v>0.0218224521166806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05902629378774025</v>
+        <v>0.05819237645029173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>14196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8312</v>
+        <v>8342</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24309</v>
+        <v>23303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02415241988038285</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01414245823544371</v>
+        <v>0.01419383602100499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04135966667839613</v>
+        <v>0.03964854213780879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -857,19 +857,19 @@
         <v>27995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18319</v>
+        <v>18306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39138</v>
+        <v>39634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02913281847052109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01906378602644985</v>
+        <v>0.0190499387462576</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04072867327258636</v>
+        <v>0.0412454268055928</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>354749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>345530</v>
+        <v>345678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>361925</v>
+        <v>361510</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9505889536530514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9258837934278845</v>
+        <v>0.9262807973754601</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9698167627524488</v>
+        <v>0.9687041414106471</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>548</v>
@@ -907,19 +907,19 @@
         <v>560274</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>548547</v>
+        <v>548110</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>569422</v>
+        <v>569472</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9532541135769788</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.93330088363699</v>
+        <v>0.932557395501158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9688180302803197</v>
+        <v>0.9689036189685145</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>927</v>
@@ -928,19 +928,19 @@
         <v>915023</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>900567</v>
+        <v>900585</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>927439</v>
+        <v>926950</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9522190750419665</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9371752247720465</v>
+        <v>0.9371936547809898</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.965139303205647</v>
+        <v>0.9646308121532517</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="9">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5129</v>
+        <v>5266</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01468850300910648</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08245165313002552</v>
+        <v>0.08464741055397669</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5358</v>
+        <v>7187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01146618619716429</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03564964027366026</v>
+        <v>0.04782066951147524</v>
       </c>
     </row>
     <row r="10">
@@ -1166,7 +1166,7 @@
         <v>87273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>88083</v>
@@ -1175,7 +1175,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>60157</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54904</v>
+        <v>55259</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>62212</v>
@@ -1196,7 +1196,7 @@
         <v>0.9669695893092035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8825289566587607</v>
+        <v>0.8882441752748973</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         <v>147431</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142748</v>
+        <v>141236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149493</v>
+        <v>149481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9809415035702086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9497837989506803</v>
+        <v>0.9397249013097377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9946634938750384</v>
+        <v>0.9945812679072665</v>
       </c>
     </row>
     <row r="11">
@@ -1528,19 +1528,19 @@
         <v>4640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1708</v>
+        <v>1790</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10391</v>
+        <v>10451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009235220828753374</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003398480084264861</v>
+        <v>0.00356235658764911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02068041159921359</v>
+        <v>0.02080034893523233</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1549,19 +1549,19 @@
         <v>14420</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7854</v>
+        <v>8251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22954</v>
+        <v>24496</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02130538783815475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01160408085792272</v>
+        <v>0.01219084568172347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03391364210294133</v>
+        <v>0.036192234021306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1570,19 +1570,19 @@
         <v>19061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11692</v>
+        <v>11570</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29522</v>
+        <v>29262</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0161626697483658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009913909407774219</v>
+        <v>0.009810521802431707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02503364437183117</v>
+        <v>0.02481308265988981</v>
       </c>
     </row>
     <row r="17">
@@ -1599,19 +1599,19 @@
         <v>14609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8341</v>
+        <v>9038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23662</v>
+        <v>24042</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02907416803781678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01659972655833012</v>
+        <v>0.01798662619481976</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0470921543891016</v>
+        <v>0.04784764857575685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1620,19 +1620,19 @@
         <v>15109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8390</v>
+        <v>8495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24831</v>
+        <v>25341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02232333434026529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01239517582050205</v>
+        <v>0.01255050593662488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03668668999075479</v>
+        <v>0.03744054970323402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1641,19 +1641,19 @@
         <v>29718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20527</v>
+        <v>20126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41688</v>
+        <v>41035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02519965200434678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01740573083344079</v>
+        <v>0.0170663127608628</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03534919664690642</v>
+        <v>0.03479547972007291</v>
       </c>
     </row>
     <row r="18">
@@ -1670,19 +1670,19 @@
         <v>483217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>472758</v>
+        <v>472760</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>489953</v>
+        <v>489621</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9616906111334298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9408761879181544</v>
+        <v>0.9408790953747348</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9750977743287524</v>
+        <v>0.9744361805491425</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>633</v>
@@ -1691,19 +1691,19 @@
         <v>647312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>634733</v>
+        <v>634513</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>656510</v>
+        <v>657116</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9563712778215799</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9377866384130155</v>
+        <v>0.9374604618441</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.969960346653541</v>
+        <v>0.9708561597506004</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1135</v>
@@ -1712,19 +1712,19 @@
         <v>1130529</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1114704</v>
+        <v>1117009</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1142347</v>
+        <v>1143491</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9586376782472874</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9452187724572843</v>
+        <v>0.9471734676563749</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.968658566034969</v>
+        <v>0.9696292229194806</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>14009</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7467</v>
+        <v>7371</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24558</v>
+        <v>23979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03380460002586744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01801938293002962</v>
+        <v>0.01778827656136273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05926137130886218</v>
+        <v>0.05786473406376744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2076,19 +2076,19 @@
         <v>32383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22355</v>
+        <v>22030</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44980</v>
+        <v>45234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05103288325110414</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03523007698625816</v>
+        <v>0.03471732967692433</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07088615819523542</v>
+        <v>0.07128579181152332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2097,19 +2097,19 @@
         <v>46391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33113</v>
+        <v>33821</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62947</v>
+        <v>62165</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04422663535931624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03156788561889877</v>
+        <v>0.03224319270493486</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06000976499417089</v>
+        <v>0.05926478309964536</v>
       </c>
     </row>
     <row r="5">
@@ -2126,19 +2126,19 @@
         <v>23229</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13962</v>
+        <v>14266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34926</v>
+        <v>34412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05605551443745925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03369274259097804</v>
+        <v>0.03442695194075764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08428049213346159</v>
+        <v>0.08304193615198086</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -2147,19 +2147,19 @@
         <v>65432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51913</v>
+        <v>50726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81703</v>
+        <v>81519</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1031157436673528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0818110169246643</v>
+        <v>0.07994064269627675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1287582500190413</v>
+        <v>0.1284685013196478</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -2168,19 +2168,19 @@
         <v>88661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72080</v>
+        <v>70436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109012</v>
+        <v>107738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08452401390557222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.068717312195738</v>
+        <v>0.06714978556637813</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.103925939583669</v>
+        <v>0.1027108033012295</v>
       </c>
     </row>
     <row r="6">
@@ -2197,19 +2197,19 @@
         <v>377160</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>364199</v>
+        <v>363429</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>389384</v>
+        <v>387364</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9101398855366734</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8788619730239725</v>
+        <v>0.8770038904410254</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9396386578411414</v>
+        <v>0.9347630630614469</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>507</v>
@@ -2218,19 +2218,19 @@
         <v>536731</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>517253</v>
+        <v>517349</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>554938</v>
+        <v>553150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.845851373081543</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8151549658193247</v>
+        <v>0.8153070104287935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8745451694336763</v>
+        <v>0.8717265406718511</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>853</v>
@@ -2239,19 +2239,19 @@
         <v>913890</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>888600</v>
+        <v>889590</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>933714</v>
+        <v>934090</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8712493507351116</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8471393580099481</v>
+        <v>0.8480829091786891</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.890148528794843</v>
+        <v>0.8905072888130731</v>
       </c>
     </row>
     <row r="7">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6253</v>
+        <v>7018</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01707918953788625</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05269630592072651</v>
+        <v>0.05913981777897378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -2385,19 +2385,19 @@
         <v>4451</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10835</v>
+        <v>10534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02206162542709707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005461258260039099</v>
+        <v>0.005415151820422349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0537091471117743</v>
+        <v>0.05221359720701847</v>
       </c>
     </row>
     <row r="9">
@@ -2414,19 +2414,19 @@
         <v>5082</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1959</v>
+        <v>1946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12224</v>
+        <v>11253</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04282903218162553</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01650511547555944</v>
+        <v>0.01640089013365466</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1030085477765611</v>
+        <v>0.09482835552625189</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4196</v>
+        <v>4988</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01187426998961538</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05051419790682651</v>
+        <v>0.06004773063903061</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -2456,19 +2456,19 @@
         <v>6069</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2104</v>
+        <v>2160</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12767</v>
+        <v>13806</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03008213254572057</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01043037662018852</v>
+        <v>0.01070712007881507</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06328542257966695</v>
+        <v>0.06843717416347327</v>
       </c>
     </row>
     <row r="10">
@@ -2485,19 +2485,19 @@
         <v>111556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103555</v>
+        <v>104889</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115457</v>
+        <v>115660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9400917782804882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8726694575119009</v>
+        <v>0.883909952441713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.97296930941393</v>
+        <v>0.9746741080087462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2506,19 +2506,19 @@
         <v>79664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73433</v>
+        <v>73758</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82103</v>
+        <v>82086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9589471184567301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8839452778673058</v>
+        <v>0.8878573533798396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9883145824851054</v>
+        <v>0.9881027730328887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -2527,19 +2527,19 @@
         <v>191220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183905</v>
+        <v>183035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196729</v>
+        <v>196427</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9478562420271823</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9116009241710858</v>
+        <v>0.9072855780024051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9751658413969021</v>
+        <v>0.9736695588116552</v>
       </c>
     </row>
     <row r="11">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2699,19 +2699,19 @@
         <v>3315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8015</v>
+        <v>8145</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1489954815624129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04350604454880208</v>
+        <v>0.04494968908933143</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3603101526877457</v>
+        <v>0.3661207559904662</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -2720,19 +2720,19 @@
         <v>4300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9847</v>
+        <v>10416</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08808039865375146</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02180544985399555</v>
+        <v>0.02278942937981336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.201700486624488</v>
+        <v>0.2133461640407375</v>
       </c>
     </row>
     <row r="14">
@@ -2749,7 +2749,7 @@
         <v>25589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2758,7 +2758,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2770,19 +2770,19 @@
         <v>18931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -2791,19 +2791,19 @@
         <v>44521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38974</v>
+        <v>38405</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47756</v>
+        <v>47708</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9119196013462485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7982995133755121</v>
+        <v>0.7866538359592635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9781945501460044</v>
+        <v>0.9772105706201866</v>
       </c>
     </row>
     <row r="15">
@@ -2895,19 +2895,19 @@
         <v>16035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9584</v>
+        <v>9461</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26294</v>
+        <v>26428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02865294014200883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01712621871389013</v>
+        <v>0.01690646353126406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04698398606949729</v>
+        <v>0.04722276121654314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -2916,19 +2916,19 @@
         <v>34807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23164</v>
+        <v>24427</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48581</v>
+        <v>50251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04704457886922098</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03130898435617185</v>
+        <v>0.03301603545626269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06566217733048825</v>
+        <v>0.06791886638318598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -2937,19 +2937,19 @@
         <v>50842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37787</v>
+        <v>38114</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68533</v>
+        <v>67384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03912412757387156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02907828529697512</v>
+        <v>0.02932999643783156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05273769280012793</v>
+        <v>0.05185365946350921</v>
       </c>
     </row>
     <row r="17">
@@ -2966,19 +2966,19 @@
         <v>29297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19354</v>
+        <v>20223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42752</v>
+        <v>42855</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05235028464869421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0345822593026635</v>
+        <v>0.03613569545859655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07639245872141953</v>
+        <v>0.07657724338587381</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -2987,19 +2987,19 @@
         <v>69733</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55549</v>
+        <v>55282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85804</v>
+        <v>87353</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0942503528759291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07507930052419418</v>
+        <v>0.07471965215259987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1159724429451458</v>
+        <v>0.1180665324814194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -3008,19 +3008,19 @@
         <v>99030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80385</v>
+        <v>80072</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>120838</v>
+        <v>120271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07620587872177978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06185832895564583</v>
+        <v>0.06161756929642256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09298796375190871</v>
+        <v>0.09255180139265339</v>
       </c>
     </row>
     <row r="18">
@@ -3037,19 +3037,19 @@
         <v>514305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>499769</v>
+        <v>498251</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>526179</v>
+        <v>526582</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.918996775209297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8930228871542668</v>
+        <v>0.8903101879962257</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9402146072358566</v>
+        <v>0.9409340480934542</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>596</v>
@@ -3058,19 +3058,19 @@
         <v>635326</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>615009</v>
+        <v>615243</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>654887</v>
+        <v>652950</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8587050682548499</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8312455020909042</v>
+        <v>0.8315613924998553</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8851434123067318</v>
+        <v>0.8825253454433319</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1060</v>
@@ -3079,19 +3079,19 @@
         <v>1149630</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1124526</v>
+        <v>1121949</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1173654</v>
+        <v>1172150</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8846699937043486</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.865351302685496</v>
+        <v>0.863368732174232</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9031568562943944</v>
+        <v>0.9019990771874392</v>
       </c>
     </row>
     <row r="19">
@@ -3422,19 +3422,19 @@
         <v>6081</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2501</v>
+        <v>2605</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12200</v>
+        <v>12132</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01718144188390622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007066264346719238</v>
+        <v>0.007359948370027013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03447307256870764</v>
+        <v>0.03427965685294714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -3443,19 +3443,19 @@
         <v>20568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12243</v>
+        <v>12389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33393</v>
+        <v>32504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0370750117292197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02206926056201761</v>
+        <v>0.02233258939921428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06019407642337145</v>
+        <v>0.05859122579011797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -3464,19 +3464,19 @@
         <v>26648</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17295</v>
+        <v>16208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38465</v>
+        <v>38527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02932692476629684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0190332616014148</v>
+        <v>0.01783739301794585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04233126407490073</v>
+        <v>0.04239990754098924</v>
       </c>
     </row>
     <row r="5">
@@ -3493,19 +3493,19 @@
         <v>22453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14793</v>
+        <v>14664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31626</v>
+        <v>33311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0634444298704956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04180053008455393</v>
+        <v>0.04143520407256694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08936377334879815</v>
+        <v>0.0941248805203817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3514,19 +3514,19 @@
         <v>40951</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27247</v>
+        <v>26858</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56114</v>
+        <v>55990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07381704286002035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04911520734378771</v>
+        <v>0.04841314595675505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1011513389280161</v>
+        <v>0.1009266278471897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -3535,19 +3535,19 @@
         <v>63404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48409</v>
+        <v>49089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81873</v>
+        <v>83800</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06977714916067436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05327486647396053</v>
+        <v>0.05402393746030849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09010338346664046</v>
+        <v>0.09222339879569891</v>
       </c>
     </row>
     <row r="6">
@@ -3564,19 +3564,19 @@
         <v>325367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>315366</v>
+        <v>314812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>333758</v>
+        <v>333947</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9193741282455982</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8911126087707145</v>
+        <v>0.8895478725436207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9430826732905946</v>
+        <v>0.9436183237208876</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>424</v>
@@ -3585,19 +3585,19 @@
         <v>493239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>473756</v>
+        <v>475970</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>508586</v>
+        <v>508004</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.88910794541076</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8539882949760508</v>
+        <v>0.8579799210171987</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9167724995981569</v>
+        <v>0.9157226593963443</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>778</v>
@@ -3606,19 +3606,19 @@
         <v>818606</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>796908</v>
+        <v>798981</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835982</v>
+        <v>836095</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9008959260730288</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8770169100070689</v>
+        <v>0.8792976877711391</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9200182387720223</v>
+        <v>0.9201423633577547</v>
       </c>
     </row>
     <row r="7">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5528</v>
+        <v>6385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009370532660599817</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02871409039112467</v>
+        <v>0.03316519783893054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5978</v>
+        <v>6354</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004740144296049346</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01570596606338288</v>
+        <v>0.01669447291601682</v>
       </c>
     </row>
     <row r="9">
@@ -3773,19 +3773,19 @@
         <v>5319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1853</v>
+        <v>2299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10936</v>
+        <v>10853</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02762634955397706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009625080913043966</v>
+        <v>0.01194228072082057</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05679919233114797</v>
+        <v>0.05636812844138891</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3794,19 +3794,19 @@
         <v>8725</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3473</v>
+        <v>3279</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17516</v>
+        <v>17811</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04639199990882864</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01846613374056116</v>
+        <v>0.01743366012297351</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09313439951225123</v>
+        <v>0.09470447247042323</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -3815,19 +3815,19 @@
         <v>14044</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7791</v>
+        <v>7925</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24334</v>
+        <v>23632</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03689927481912043</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02047040271614282</v>
+        <v>0.02082213175410274</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06393395823985071</v>
+        <v>0.06209063278533055</v>
       </c>
     </row>
     <row r="10">
@@ -3844,19 +3844,19 @@
         <v>185409</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179540</v>
+        <v>179464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189656</v>
+        <v>189180</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9630031177854231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9325216201097344</v>
+        <v>0.9321266446426082</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9850639281007866</v>
+        <v>0.9825876026207283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -3865,19 +3865,19 @@
         <v>179349</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170558</v>
+        <v>170263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184601</v>
+        <v>184795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9536080000911714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9068656004877484</v>
+        <v>0.9052955275295765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9815338662594388</v>
+        <v>0.9825663398770265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>339</v>
@@ -3886,19 +3886,19 @@
         <v>364758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>354126</v>
+        <v>354015</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>371434</v>
+        <v>370949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9583605808848302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9304258280204748</v>
+        <v>0.9301352289348882</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9759011125305064</v>
+        <v>0.9746262704733719</v>
       </c>
     </row>
     <row r="11">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7075</v>
+        <v>8506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01817337009297725</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09346101156033794</v>
+        <v>0.1123636791526176</v>
       </c>
     </row>
     <row r="14">
@@ -4113,7 +4113,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4122,7 +4122,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4134,7 +4134,7 @@
         <v>74327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68628</v>
+        <v>67197</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>75703</v>
@@ -4143,7 +4143,7 @@
         <v>0.9818266299070227</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9065389884396623</v>
+        <v>0.8876363208473859</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -4238,19 +4238,19 @@
         <v>7885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3652</v>
+        <v>4133</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14348</v>
+        <v>14476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01339875116713736</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006205259174125134</v>
+        <v>0.007023486820331507</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02438291251250676</v>
+        <v>0.02460017324283478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4259,19 +4259,19 @@
         <v>20568</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12492</v>
+        <v>12444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33575</v>
+        <v>32276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02648742325123266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01608801430998219</v>
+        <v>0.01602558048252481</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04323843859373882</v>
+        <v>0.04156578738239465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -4280,19 +4280,19 @@
         <v>28452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18801</v>
+        <v>18652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41390</v>
+        <v>42085</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02084465549839238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0137739189605396</v>
+        <v>0.01366446097943883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03032312813498355</v>
+        <v>0.03083220680177049</v>
       </c>
     </row>
     <row r="17">
@@ -4309,19 +4309,19 @@
         <v>27772</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19210</v>
+        <v>18391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38498</v>
+        <v>38256</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04719421298701262</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03264494806955821</v>
+        <v>0.03125222969974426</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06542194035627112</v>
+        <v>0.06501081726375149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -4330,19 +4330,19 @@
         <v>51051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36827</v>
+        <v>36215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69067</v>
+        <v>67949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0657451357967522</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0474271484125874</v>
+        <v>0.04663807016776189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08894630250839233</v>
+        <v>0.08750606959787186</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -4351,19 +4351,19 @@
         <v>78823</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62819</v>
+        <v>61819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>98749</v>
+        <v>98730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05774749108966019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04602227958552049</v>
+        <v>0.04528981799753939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0723450325504976</v>
+        <v>0.07233165502867124</v>
       </c>
     </row>
     <row r="18">
@@ -4380,19 +4380,19 @@
         <v>552806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>541297</v>
+        <v>541312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>563039</v>
+        <v>563135</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9394070358458501</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9198479845034688</v>
+        <v>0.9198748223642359</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9567963983213401</v>
+        <v>0.9569598534102379</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>599</v>
@@ -4401,19 +4401,19 @@
         <v>704886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>684664</v>
+        <v>686593</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>720846</v>
+        <v>721351</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9077674409520151</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8817250923214964</v>
+        <v>0.8842096051478715</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9283215490432722</v>
+        <v>0.9289719353152203</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1183</v>
@@ -4422,19 +4422,19 @@
         <v>1257692</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1234595</v>
+        <v>1232944</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1276968</v>
+        <v>1277194</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9214078534119474</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9044862652090324</v>
+        <v>0.9032765383615913</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9355294129215964</v>
+        <v>0.9356949788953129</v>
       </c>
     </row>
     <row r="19">
@@ -4765,19 +4765,19 @@
         <v>5860</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2864</v>
+        <v>2613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11163</v>
+        <v>12015</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02019976723896125</v>
+        <v>0.02019976723896126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009872844340850647</v>
+        <v>0.00900585940104796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0384819380237366</v>
+        <v>0.04141743048848342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -4786,19 +4786,19 @@
         <v>21435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15031</v>
+        <v>15418</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29103</v>
+        <v>28872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03985234971501426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02794647132944724</v>
+        <v>0.02866463766697056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0541085324013556</v>
+        <v>0.05367968314502318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -4807,19 +4807,19 @@
         <v>27295</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20157</v>
+        <v>20478</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36239</v>
+        <v>37308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03296659756787915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02434549602243729</v>
+        <v>0.0247334547556844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04376896140283279</v>
+        <v>0.04506022680722341</v>
       </c>
     </row>
     <row r="5">
@@ -4836,19 +4836,19 @@
         <v>18991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13406</v>
+        <v>12442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27151</v>
+        <v>26230</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06546617954182035</v>
+        <v>0.06546617954182037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04621363944902943</v>
+        <v>0.04289046648468237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0935951007894289</v>
+        <v>0.09041935635423813</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>112</v>
@@ -4857,19 +4857,19 @@
         <v>58833</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49005</v>
+        <v>48178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70891</v>
+        <v>70889</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1093825865094256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.091110583546105</v>
+        <v>0.08957309459141524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1318006877948806</v>
+        <v>0.1317976974570231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>144</v>
@@ -4878,19 +4878,19 @@
         <v>77824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66471</v>
+        <v>64583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92696</v>
+        <v>92365</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09399542332412296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08028272818643332</v>
+        <v>0.07800222871729634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1119568330360439</v>
+        <v>0.11155787280577</v>
       </c>
     </row>
     <row r="6">
@@ -4907,19 +4907,19 @@
         <v>265244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>257319</v>
+        <v>256657</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>272209</v>
+        <v>272746</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9143340532192182</v>
+        <v>0.9143340532192183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8870178196024449</v>
+        <v>0.8847354965686094</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9383445775704797</v>
+        <v>0.9401957107955947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>866</v>
@@ -4928,19 +4928,19 @@
         <v>457596</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>444474</v>
+        <v>444720</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>468904</v>
+        <v>469414</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.85076506377556</v>
+        <v>0.8507650637755599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8263695548541998</v>
+        <v>0.8268254261182169</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.871789441969503</v>
+        <v>0.8727373824269397</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1253</v>
@@ -4949,19 +4949,19 @@
         <v>722840</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>707250</v>
+        <v>706246</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>736526</v>
+        <v>737452</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.873037979107998</v>
+        <v>0.8730379791079981</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8542084255200286</v>
+        <v>0.8529969116671292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8895680455713514</v>
+        <v>0.8906860630395103</v>
       </c>
     </row>
     <row r="7">
@@ -5053,19 +5053,19 @@
         <v>2184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6423</v>
+        <v>6063</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.007187897181642312</v>
+        <v>0.007187897181642314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002024650256034773</v>
+        <v>0.002002117134608039</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02113941643226827</v>
+        <v>0.01995440051535442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3108</v>
+        <v>2983</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003166506312609744</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01119412371316189</v>
+        <v>0.01074338431737889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -5095,19 +5095,19 @@
         <v>3063</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1088</v>
+        <v>1032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7244</v>
+        <v>7019</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.005267728557834455</v>
+        <v>0.005267728557834456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001870616767377618</v>
+        <v>0.001774381598662297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01245812452154971</v>
+        <v>0.01207127448581277</v>
       </c>
     </row>
     <row r="9">
@@ -5124,19 +5124,19 @@
         <v>8294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4416</v>
+        <v>4345</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13777</v>
+        <v>13746</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02729787437775337</v>
+        <v>0.02729787437775338</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0145344846649914</v>
+        <v>0.01430054675628297</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0453467941344276</v>
+        <v>0.04524248410092046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -5145,19 +5145,19 @@
         <v>11929</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8136</v>
+        <v>7400</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18600</v>
+        <v>17681</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04296557849179171</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02930318927517445</v>
+        <v>0.02665151351284257</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06699283362707432</v>
+        <v>0.06368270611270639</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -5166,19 +5166,19 @@
         <v>20223</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14199</v>
+        <v>13152</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27592</v>
+        <v>28173</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03477902575713153</v>
+        <v>0.03477902575713152</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02441949790640609</v>
+        <v>0.02261852776663945</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04745170250610295</v>
+        <v>0.04845100973149986</v>
       </c>
     </row>
     <row r="10">
@@ -5195,19 +5195,19 @@
         <v>293347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286655</v>
+        <v>287208</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>297645</v>
+        <v>297966</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9655142284406041</v>
+        <v>0.9655142284406043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9434886820536086</v>
+        <v>0.9453089166501955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9796608488109455</v>
+        <v>0.9807162296413657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>504</v>
@@ -5216,19 +5216,19 @@
         <v>264838</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>257913</v>
+        <v>258810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268752</v>
+        <v>269303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9538679151955987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9289260064079597</v>
+        <v>0.9321597397562339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9679675121913861</v>
+        <v>0.9699506243961915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>915</v>
@@ -5237,19 +5237,19 @@
         <v>558185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>549870</v>
+        <v>549792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>564588</v>
+        <v>565871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.959953245685034</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9456529294396633</v>
+        <v>0.9455194420030397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9709643868444403</v>
+        <v>0.9731707258160519</v>
       </c>
     </row>
     <row r="11">
@@ -5388,19 +5388,19 @@
         <v>2726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8663</v>
+        <v>9000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02293282364323496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005104005410092305</v>
+        <v>0.005127219456320254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07286771433270443</v>
+        <v>0.07570712136111524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2060</v>
+        <v>2118</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005210906863852545</v>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02486532332790336</v>
+        <v>0.02556122260462779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -5430,19 +5430,19 @@
         <v>3158</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1030</v>
+        <v>671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9373</v>
+        <v>9165</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01565424063889044</v>
+        <v>0.01565424063889045</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005103986527736297</v>
+        <v>0.003328016254468128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04646245969973651</v>
+        <v>0.04542936882417762</v>
       </c>
     </row>
     <row r="14">
@@ -5459,19 +5459,19 @@
         <v>116155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110218</v>
+        <v>109881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118274</v>
+        <v>118271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.977067176356765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9271322856672958</v>
+        <v>0.9242928786388841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9948959945899077</v>
+        <v>0.9948727805436798</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>151</v>
@@ -5480,16 +5480,16 @@
         <v>82423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80795</v>
+        <v>80737</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>82855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9947890931361473</v>
+        <v>0.9947890931361474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9751346766720965</v>
+        <v>0.9744387773953722</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5501,19 +5501,19 @@
         <v>198578</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>192363</v>
+        <v>192571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200706</v>
+        <v>201065</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843457593611097</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9535375403002641</v>
+        <v>0.9545706311758231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9948960134722639</v>
+        <v>0.9966719837455319</v>
       </c>
     </row>
     <row r="15">
@@ -5605,19 +5605,19 @@
         <v>8044</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4405</v>
+        <v>4212</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14219</v>
+        <v>13878</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01128465909639226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006180180987987826</v>
+        <v>0.005908475470203229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01994838262081748</v>
+        <v>0.01946993917593754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -5626,19 +5626,19 @@
         <v>22314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16370</v>
+        <v>15645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30157</v>
+        <v>29903</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02483879711213657</v>
+        <v>0.02483879711213658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01822210339096386</v>
+        <v>0.01741542167873061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03356832499784744</v>
+        <v>0.03328620406881707</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -5647,19 +5647,19 @@
         <v>30358</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22584</v>
+        <v>22045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39906</v>
+        <v>39279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01884226606326666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01401721666052821</v>
+        <v>0.01368282012412486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02476827273290684</v>
+        <v>0.02437949989968992</v>
       </c>
     </row>
     <row r="17">
@@ -5676,19 +5676,19 @@
         <v>30011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22473</v>
+        <v>21955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40135</v>
+        <v>40208</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04210357227487391</v>
+        <v>0.0421035722748739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03152808556203356</v>
+        <v>0.03080058155357848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05630556173185762</v>
+        <v>0.0564080651735451</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -5697,19 +5697,19 @@
         <v>71194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58318</v>
+        <v>58468</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83379</v>
+        <v>82721</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07924830982934312</v>
+        <v>0.07924830982934311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06491616324712909</v>
+        <v>0.06508316678167521</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09281220809875175</v>
+        <v>0.09207957904259904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>183</v>
@@ -5718,19 +5718,19 @@
         <v>101205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86973</v>
+        <v>85726</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118508</v>
+        <v>116928</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06281498357954639</v>
+        <v>0.06281498357954637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0539814829231629</v>
+        <v>0.053207604711135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07355416956900704</v>
+        <v>0.07257380295085923</v>
       </c>
     </row>
     <row r="18">
@@ -5747,19 +5747,19 @@
         <v>674746</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>663535</v>
+        <v>663143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>683671</v>
+        <v>683700</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9466117686287339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9308836760467387</v>
+        <v>0.930333373727163</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.959132498965383</v>
+        <v>0.9591734622782296</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1521</v>
@@ -5768,19 +5768,19 @@
         <v>804857</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>791343</v>
+        <v>791425</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>819460</v>
+        <v>819131</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8959128930585205</v>
+        <v>0.8959128930585203</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8808706307839981</v>
+        <v>0.8809611663987564</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9121678998412671</v>
+        <v>0.9118018052742289</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2484</v>
@@ -5789,19 +5789,19 @@
         <v>1479603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1462909</v>
+        <v>1461808</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1496264</v>
+        <v>1495984</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.918342750357187</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9079815075781001</v>
+        <v>0.9072983009642356</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9286841015834946</v>
+        <v>0.928510236740659</v>
       </c>
     </row>
     <row r="19">
